--- a/New Microsoft Office Excel Worksheet.xlsx
+++ b/New Microsoft Office Excel Worksheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4998" uniqueCount="3334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5017" uniqueCount="3337">
   <si>
     <t>ت</t>
   </si>
@@ -10029,6 +10029,15 @@
   </si>
   <si>
     <t>تسهيل المهمة السابعه</t>
+  </si>
+  <si>
+    <t>تسهيل المهمة التاسعه</t>
+  </si>
+  <si>
+    <t>سهيل</t>
+  </si>
+  <si>
+    <t>ستار ابو محمد</t>
   </si>
 </sst>
 </file>
@@ -31775,7 +31784,7 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -36161,7 +36170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A80" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="E77" sqref="A77:E99"/>
     </sheetView>
   </sheetViews>
@@ -37867,10 +37876,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A44" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="A59" sqref="A1:G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37902,7 +37911,7 @@
         <v>2389</v>
       </c>
       <c r="B2" s="72">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="D2" s="69">
         <f>SUM(B9+G22+B33+G33+B37)</f>
@@ -37912,7 +37921,7 @@
         <v>2389</v>
       </c>
       <c r="G2" s="72">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21">
@@ -37960,7 +37969,9 @@
       <c r="A6" s="70" t="s">
         <v>2393</v>
       </c>
-      <c r="B6" s="73"/>
+      <c r="B6" s="73">
+        <v>43192</v>
+      </c>
       <c r="D6" s="69">
         <f>SUM(G21)</f>
         <v>125</v>
@@ -37976,7 +37987,9 @@
       <c r="A7" s="82" t="s">
         <v>2394</v>
       </c>
-      <c r="B7" s="83"/>
+      <c r="B7" s="83">
+        <v>43223</v>
+      </c>
       <c r="F7" s="82" t="s">
         <v>2394</v>
       </c>
@@ -38048,7 +38061,7 @@
         <v>2389</v>
       </c>
       <c r="B14" s="72">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="D14" s="81" t="s">
         <v>7</v>
@@ -38057,7 +38070,7 @@
         <v>2389</v>
       </c>
       <c r="G14" s="72">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="21">
@@ -38133,7 +38146,7 @@
       </c>
       <c r="D19" s="69">
         <f>SUM(B2+G2+B14+G14+B26+G26+B37)</f>
-        <v>1276</v>
+        <v>1161</v>
       </c>
       <c r="F19" s="82" t="s">
         <v>2394</v>
@@ -38147,14 +38160,14 @@
         <v>2395</v>
       </c>
       <c r="B20" s="64">
-        <v>43214</v>
+        <v>43212</v>
       </c>
       <c r="D20" s="66"/>
       <c r="F20" s="63" t="s">
         <v>2395</v>
       </c>
       <c r="G20" s="64">
-        <v>43214</v>
+        <v>43212</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="21">
@@ -38192,7 +38205,7 @@
     <row r="24" spans="1:7" ht="18.75">
       <c r="D24" s="74">
         <f>SUM(G9+G14+B14+B26)</f>
-        <v>765</v>
+        <v>687</v>
       </c>
       <c r="F24" s="95"/>
       <c r="G24" s="95"/>
@@ -38212,13 +38225,13 @@
         <v>2389</v>
       </c>
       <c r="B26" s="72">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="F26" s="70" t="s">
         <v>2389</v>
       </c>
       <c r="G26" s="72">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="23.25">
@@ -38234,7 +38247,9 @@
       <c r="F27" s="70" t="s">
         <v>2390</v>
       </c>
-      <c r="G27" s="62"/>
+      <c r="G27" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="21">
       <c r="A28" s="70" t="s">
@@ -38245,12 +38260,14 @@
       </c>
       <c r="D28" s="74">
         <f>SUM(B2+G26+B37)</f>
-        <v>511</v>
+        <v>482</v>
       </c>
       <c r="F28" s="70" t="s">
         <v>2391</v>
       </c>
-      <c r="G28" s="72"/>
+      <c r="G28" s="72">
+        <v>5537</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="21">
       <c r="A29" s="70" t="s">
@@ -38262,7 +38279,9 @@
       <c r="F29" s="70" t="s">
         <v>2392</v>
       </c>
-      <c r="G29" s="72"/>
+      <c r="G29" s="72">
+        <v>9241</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="21">
       <c r="A30" s="70" t="s">
@@ -38274,7 +38293,9 @@
       <c r="F30" s="70" t="s">
         <v>2393</v>
       </c>
-      <c r="G30" s="73"/>
+      <c r="G30" s="73">
+        <v>43206</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="21">
       <c r="A31" s="82" t="s">
@@ -38286,20 +38307,22 @@
       <c r="F31" s="82" t="s">
         <v>2394</v>
       </c>
-      <c r="G31" s="83"/>
+      <c r="G31" s="83">
+        <v>43235</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="21">
       <c r="A32" s="63" t="s">
         <v>2395</v>
       </c>
       <c r="B32" s="64">
-        <v>43214</v>
+        <v>43212</v>
       </c>
       <c r="F32" s="63" t="s">
         <v>2395</v>
       </c>
       <c r="G32" s="64">
-        <v>43191</v>
+        <v>43222</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="21">
@@ -38330,6 +38353,10 @@
         <v>3333</v>
       </c>
       <c r="B36" s="98"/>
+      <c r="F36" s="98" t="s">
+        <v>3333</v>
+      </c>
+      <c r="G36" s="98"/>
     </row>
     <row r="37" spans="1:7" ht="21">
       <c r="A37" s="70" t="s">
@@ -38338,43 +38365,95 @@
       <c r="B37" s="72">
         <v>70</v>
       </c>
+      <c r="F37" s="70" t="s">
+        <v>2389</v>
+      </c>
+      <c r="G37" s="72">
+        <v>214</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="21">
       <c r="A38" s="70" t="s">
         <v>2390</v>
       </c>
-      <c r="B38" s="62"/>
+      <c r="B38" s="62">
+        <v>0</v>
+      </c>
+      <c r="F38" s="70" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G38" s="62">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="21">
       <c r="A39" s="70" t="s">
         <v>2391</v>
       </c>
-      <c r="B39" s="72"/>
+      <c r="B39" s="72">
+        <v>5940</v>
+      </c>
+      <c r="F39" s="70" t="s">
+        <v>2391</v>
+      </c>
+      <c r="G39" s="72">
+        <v>6596</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="21">
       <c r="A40" s="70" t="s">
         <v>2392</v>
       </c>
-      <c r="B40" s="72"/>
+      <c r="B40" s="72">
+        <v>10180</v>
+      </c>
+      <c r="F40" s="70" t="s">
+        <v>2392</v>
+      </c>
+      <c r="G40" s="72">
+        <v>10923</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="21">
       <c r="A41" s="70" t="s">
         <v>2393</v>
       </c>
-      <c r="B41" s="73"/>
+      <c r="B41" s="73">
+        <v>43206</v>
+      </c>
+      <c r="F41" s="70" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G41" s="73">
+        <v>43213</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="21">
       <c r="A42" s="82" t="s">
         <v>2394</v>
       </c>
-      <c r="B42" s="83"/>
+      <c r="B42" s="83">
+        <v>43235</v>
+      </c>
+      <c r="F42" s="82" t="s">
+        <v>2394</v>
+      </c>
+      <c r="G42" s="83">
+        <v>43242</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="21">
       <c r="A43" s="63" t="s">
         <v>2395</v>
       </c>
       <c r="B43" s="64">
-        <v>43191</v>
+        <v>43222</v>
+      </c>
+      <c r="F43" s="63" t="s">
+        <v>2395</v>
+      </c>
+      <c r="G43" s="64">
+        <v>43230</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="21">
@@ -38384,53 +38463,127 @@
       <c r="B44" s="85">
         <v>70</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="G46" s="96">
-        <v>43195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="97" t="s">
+      <c r="F44" s="84" t="s">
+        <v>3335</v>
+      </c>
+      <c r="G44" s="85">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="21">
+      <c r="F45" s="84" t="s">
+        <v>3336</v>
+      </c>
+      <c r="G45" s="85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="21">
+      <c r="A47" s="98" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B47" s="98"/>
+    </row>
+    <row r="48" spans="1:7" ht="21">
+      <c r="A48" s="70" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B48" s="72">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="21">
+      <c r="A49" s="70" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B49" s="62"/>
+    </row>
+    <row r="50" spans="1:7" ht="21">
+      <c r="A50" s="70" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B50" s="72"/>
+    </row>
+    <row r="51" spans="1:7" ht="21">
+      <c r="A51" s="70" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B51" s="72"/>
+    </row>
+    <row r="52" spans="1:7" ht="21">
+      <c r="A52" s="70" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B52" s="73"/>
+    </row>
+    <row r="53" spans="1:7" ht="21">
+      <c r="A53" s="82" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B53" s="83"/>
+    </row>
+    <row r="54" spans="1:7" ht="21">
+      <c r="A54" s="63" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B54" s="64">
+        <v>43223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="21">
+      <c r="A55" s="84" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B55" s="85">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="G57" s="96">
+        <v>43225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="97" t="s">
         <v>2400</v>
       </c>
-      <c r="B48" s="97"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="97"/>
-      <c r="B49" s="97"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="97"/>
-      <c r="B50" s="97"/>
-      <c r="C50" s="97"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="97"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="97"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="97"/>
-      <c r="B51" s="97"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
+      <c r="B59" s="97"/>
+      <c r="C59" s="97"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="97"/>
+      <c r="G59" s="97"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="97"/>
+      <c r="B60" s="97"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="97"/>
+      <c r="E60" s="97"/>
+      <c r="F60" s="97"/>
+      <c r="G60" s="97"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="97"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="97"/>
+      <c r="F61" s="97"/>
+      <c r="G61" s="97"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="97"/>
+      <c r="B62" s="97"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="97"/>
+      <c r="G62" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A48:G51"/>
+  <mergeCells count="10">
+    <mergeCell ref="A59:G62"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="F13:G13"/>
@@ -38438,9 +38591,11 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="A36:B36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A47:B47"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/New Microsoft Office Excel Worksheet.xlsx
+++ b/New Microsoft Office Excel Worksheet.xlsx
@@ -37878,8 +37878,8 @@
   </sheetPr>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A44" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="A59" sqref="A1:G62"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C45" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37929,7 +37929,7 @@
         <v>2390</v>
       </c>
       <c r="B3" s="62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="70" t="s">
         <v>2390</v>
@@ -37942,19 +37942,23 @@
       <c r="A4" s="70" t="s">
         <v>2391</v>
       </c>
-      <c r="B4" s="72"/>
+      <c r="B4" s="72">
+        <v>7856</v>
+      </c>
       <c r="F4" s="70" t="s">
         <v>3324</v>
       </c>
       <c r="G4" s="72">
-        <v>5536</v>
+        <v>7859</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="21">
       <c r="A5" s="70" t="s">
         <v>2392</v>
       </c>
-      <c r="B5" s="72"/>
+      <c r="B5" s="72">
+        <v>12782</v>
+      </c>
       <c r="D5" s="81" t="s">
         <v>313</v>
       </c>
@@ -37962,7 +37966,7 @@
         <v>3325</v>
       </c>
       <c r="G5" s="72">
-        <v>9236</v>
+        <v>12792</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="21">
@@ -37970,7 +37974,7 @@
         <v>2393</v>
       </c>
       <c r="B6" s="73">
-        <v>43192</v>
+        <v>43234</v>
       </c>
       <c r="D6" s="69">
         <f>SUM(G21)</f>
@@ -37980,7 +37984,7 @@
         <v>2393</v>
       </c>
       <c r="G6" s="73">
-        <v>43194</v>
+        <v>43234</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21">
@@ -37988,13 +37992,13 @@
         <v>2394</v>
       </c>
       <c r="B7" s="83">
-        <v>43223</v>
+        <v>43251</v>
       </c>
       <c r="F7" s="82" t="s">
         <v>2394</v>
       </c>
       <c r="G7" s="83">
-        <v>43223</v>
+        <v>43251</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21">
@@ -38002,13 +38006,13 @@
         <v>2395</v>
       </c>
       <c r="B8" s="64">
-        <v>43184</v>
+        <v>43240</v>
       </c>
       <c r="F8" s="63" t="s">
         <v>2395</v>
       </c>
       <c r="G8" s="64">
-        <v>43214</v>
+        <v>43240</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21">
@@ -38096,28 +38100,26 @@
         <v>2391</v>
       </c>
       <c r="B16" s="72">
-        <v>5498</v>
+        <v>7860</v>
       </c>
       <c r="F16" s="70" t="s">
         <v>3324</v>
       </c>
-      <c r="G16" s="72">
-        <v>5537</v>
-      </c>
+      <c r="G16" s="72"/>
     </row>
     <row r="17" spans="1:7" ht="21">
       <c r="A17" s="70" t="s">
         <v>2392</v>
       </c>
       <c r="B17" s="72">
-        <v>9242</v>
+        <v>12791</v>
       </c>
       <c r="D17" s="65"/>
       <c r="F17" s="70" t="s">
         <v>3325</v>
       </c>
       <c r="G17" s="72">
-        <v>9241</v>
+        <v>12783</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="23.25">
@@ -38125,7 +38127,7 @@
         <v>2393</v>
       </c>
       <c r="B18" s="73">
-        <v>43194</v>
+        <v>43234</v>
       </c>
       <c r="D18" s="76" t="s">
         <v>2399</v>
@@ -38134,7 +38136,7 @@
         <v>2393</v>
       </c>
       <c r="G18" s="73">
-        <v>43194</v>
+        <v>43234</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="21">
@@ -38142,7 +38144,7 @@
         <v>2394</v>
       </c>
       <c r="B19" s="83">
-        <v>43223</v>
+        <v>43251</v>
       </c>
       <c r="D19" s="69">
         <f>SUM(B2+G2+B14+G14+B26+G26+B37)</f>
@@ -38152,7 +38154,7 @@
         <v>2394</v>
       </c>
       <c r="G19" s="83">
-        <v>43223</v>
+        <v>43251</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="21">
@@ -38160,14 +38162,14 @@
         <v>2395</v>
       </c>
       <c r="B20" s="64">
-        <v>43212</v>
+        <v>43240</v>
       </c>
       <c r="D20" s="66"/>
       <c r="F20" s="63" t="s">
         <v>2395</v>
       </c>
       <c r="G20" s="64">
-        <v>43212</v>
+        <v>43240</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="21">
@@ -38256,7 +38258,7 @@
         <v>2391</v>
       </c>
       <c r="B28" s="72">
-        <v>5311</v>
+        <v>7855</v>
       </c>
       <c r="D28" s="74">
         <f>SUM(B2+G26+B37)</f>
@@ -38274,7 +38276,7 @@
         <v>2392</v>
       </c>
       <c r="B29" s="72">
-        <v>9238</v>
+        <v>12790</v>
       </c>
       <c r="F29" s="70" t="s">
         <v>2392</v>
@@ -38288,7 +38290,7 @@
         <v>2393</v>
       </c>
       <c r="B30" s="73">
-        <v>43194</v>
+        <v>43234</v>
       </c>
       <c r="F30" s="70" t="s">
         <v>2393</v>
@@ -38302,7 +38304,7 @@
         <v>2394</v>
       </c>
       <c r="B31" s="83">
-        <v>43223</v>
+        <v>43251</v>
       </c>
       <c r="F31" s="82" t="s">
         <v>2394</v>
@@ -38316,7 +38318,7 @@
         <v>2395</v>
       </c>
       <c r="B32" s="64">
-        <v>43212</v>
+        <v>43240</v>
       </c>
       <c r="F32" s="63" t="s">
         <v>2395</v>
@@ -38496,38 +38498,48 @@
       <c r="A49" s="70" t="s">
         <v>2390</v>
       </c>
-      <c r="B49" s="62"/>
+      <c r="B49" s="62">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="21">
       <c r="A50" s="70" t="s">
         <v>2391</v>
       </c>
-      <c r="B50" s="72"/>
+      <c r="B50" s="72">
+        <v>7642</v>
+      </c>
     </row>
     <row r="51" spans="1:7" ht="21">
       <c r="A51" s="70" t="s">
         <v>2392</v>
       </c>
-      <c r="B51" s="72"/>
+      <c r="B51" s="72">
+        <v>12578</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="21">
       <c r="A52" s="70" t="s">
         <v>2393</v>
       </c>
-      <c r="B52" s="73"/>
+      <c r="B52" s="73">
+        <v>43234</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="21">
       <c r="A53" s="82" t="s">
         <v>2394</v>
       </c>
-      <c r="B53" s="83"/>
+      <c r="B53" s="83">
+        <v>43251</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="21">
       <c r="A54" s="63" t="s">
         <v>2395</v>
       </c>
       <c r="B54" s="64">
-        <v>43223</v>
+        <v>43240</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="21">
@@ -38540,7 +38552,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="G57" s="96">
-        <v>43225</v>
+        <v>43234</v>
       </c>
     </row>
     <row r="59" spans="1:7">

--- a/New Microsoft Office Excel Worksheet.xlsx
+++ b/New Microsoft Office Excel Worksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18960" windowHeight="11760" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18960" windowHeight="11760" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="تسهيل المهمة الاولى" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,10 @@
     <sheet name="تسهيل المهمة الخامسه" sheetId="7" r:id="rId6"/>
     <sheet name="تسهيل المهمه السادسة" sheetId="8" r:id="rId7"/>
     <sheet name="ورقة1" sheetId="9" r:id="rId8"/>
+    <sheet name="جديد" sheetId="10" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_GoBack" localSheetId="6">'تسهيل المهمه السادسة'!$B$16</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5017" uniqueCount="3337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5144" uniqueCount="3343">
   <si>
     <t>ت</t>
   </si>
@@ -10038,6 +10039,24 @@
   </si>
   <si>
     <t>ستار ابو محمد</t>
+  </si>
+  <si>
+    <t>تسهيل المهمة الثامنة</t>
+  </si>
+  <si>
+    <t>تسهيل المهمة العاشرة</t>
+  </si>
+  <si>
+    <t>تسهيل المهمة الحادي عشر</t>
+  </si>
+  <si>
+    <t>جديده</t>
+  </si>
+  <si>
+    <t>جديدة</t>
+  </si>
+  <si>
+    <t>سهيل ابو مروان</t>
   </si>
 </sst>
 </file>
@@ -10338,7 +10357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="2"/>
@@ -10615,6 +10634,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -37876,10 +37901,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C45" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:G62"/>
+    <sheetView rightToLeft="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="D3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37914,8 +37939,8 @@
         <v>164</v>
       </c>
       <c r="D2" s="69">
-        <f>SUM(B9+G22+B33+G33+B37)</f>
-        <v>807</v>
+        <f>SUM(B9+G22+B33+G33+B37+B48)</f>
+        <v>1040</v>
       </c>
       <c r="F2" s="70" t="s">
         <v>2389</v>
@@ -38122,15 +38147,12 @@
         <v>12783</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="23.25">
+    <row r="18" spans="1:7" ht="21">
       <c r="A18" s="70" t="s">
         <v>2393</v>
       </c>
       <c r="B18" s="73">
         <v>43234</v>
-      </c>
-      <c r="D18" s="76" t="s">
-        <v>2399</v>
       </c>
       <c r="F18" s="70" t="s">
         <v>2393</v>
@@ -38146,9 +38168,8 @@
       <c r="B19" s="83">
         <v>43251</v>
       </c>
-      <c r="D19" s="69">
-        <f>SUM(B2+G2+B14+G14+B26+G26+B37)</f>
-        <v>1161</v>
+      <c r="D19" s="81" t="s">
+        <v>3342</v>
       </c>
       <c r="F19" s="82" t="s">
         <v>2394</v>
@@ -38164,7 +38185,10 @@
       <c r="B20" s="64">
         <v>43240</v>
       </c>
-      <c r="D20" s="66"/>
+      <c r="D20" s="69">
+        <f>SUM(G44+G55+B59)</f>
+        <v>568</v>
+      </c>
       <c r="F20" s="63" t="s">
         <v>2395</v>
       </c>
@@ -38189,7 +38213,6 @@
     <row r="22" spans="1:7" ht="21">
       <c r="A22" s="84"/>
       <c r="B22" s="85"/>
-      <c r="D22" s="75"/>
       <c r="F22" s="84" t="s">
         <v>1829</v>
       </c>
@@ -38197,26 +38220,22 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="23.25">
-      <c r="D23" s="76" t="s">
-        <v>3330</v>
-      </c>
+    <row r="23" spans="1:7" ht="21">
       <c r="F23" s="65"/>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="1:7" ht="18.75">
-      <c r="D24" s="74">
-        <f>SUM(G9+G14+B14+B26)</f>
-        <v>687</v>
-      </c>
+    <row r="24" spans="1:7">
       <c r="F24" s="95"/>
       <c r="G24" s="95"/>
     </row>
-    <row r="25" spans="1:7" ht="21">
+    <row r="25" spans="1:7" ht="23.25">
       <c r="A25" s="98" t="s">
         <v>3322</v>
       </c>
       <c r="B25" s="98"/>
+      <c r="D25" s="76" t="s">
+        <v>2399</v>
+      </c>
       <c r="F25" s="99" t="s">
         <v>3332</v>
       </c>
@@ -38229,6 +38248,10 @@
       <c r="B26" s="72">
         <v>189</v>
       </c>
+      <c r="D26" s="69">
+        <f>SUM(D2+D6+D10+D15+D20)</f>
+        <v>2077</v>
+      </c>
       <c r="F26" s="70" t="s">
         <v>2389</v>
       </c>
@@ -38236,21 +38259,19 @@
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="23.25">
+    <row r="27" spans="1:7" ht="21">
       <c r="A27" s="70" t="s">
         <v>2390</v>
       </c>
       <c r="B27" s="62">
         <v>0</v>
       </c>
-      <c r="D27" s="76" t="s">
-        <v>3331</v>
-      </c>
+      <c r="D27" s="66"/>
       <c r="F27" s="70" t="s">
         <v>2390</v>
       </c>
       <c r="G27" s="62">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="21">
@@ -38260,15 +38281,15 @@
       <c r="B28" s="72">
         <v>7855</v>
       </c>
-      <c r="D28" s="74">
-        <f>SUM(B2+G26+B37)</f>
-        <v>482</v>
+      <c r="D28">
+        <f>SUM(B2+G2+G14+B14+G26+B26+G37+B37+B48+G48+B59)</f>
+        <v>1972</v>
       </c>
       <c r="F28" s="70" t="s">
         <v>2391</v>
       </c>
       <c r="G28" s="72">
-        <v>5537</v>
+        <v>7976</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="21">
@@ -38278,25 +38299,29 @@
       <c r="B29" s="72">
         <v>12790</v>
       </c>
+      <c r="D29" s="75"/>
       <c r="F29" s="70" t="s">
         <v>2392</v>
       </c>
       <c r="G29" s="72">
-        <v>9241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="21">
+        <v>12931</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="23.25">
       <c r="A30" s="70" t="s">
         <v>2393</v>
       </c>
       <c r="B30" s="73">
         <v>43234</v>
       </c>
+      <c r="D30" s="76" t="s">
+        <v>3330</v>
+      </c>
       <c r="F30" s="70" t="s">
         <v>2393</v>
       </c>
       <c r="G30" s="73">
-        <v>43206</v>
+        <v>43234</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="21">
@@ -38306,11 +38331,15 @@
       <c r="B31" s="83">
         <v>43251</v>
       </c>
+      <c r="D31" s="74">
+        <f>SUM(G9+G14+B14+B26)</f>
+        <v>687</v>
+      </c>
       <c r="F31" s="82" t="s">
         <v>2394</v>
       </c>
       <c r="G31" s="83">
-        <v>43235</v>
+        <v>43251</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="21">
@@ -38324,7 +38353,7 @@
         <v>2395</v>
       </c>
       <c r="G32" s="64">
-        <v>43222</v>
+        <v>43240</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="21">
@@ -38341,22 +38370,30 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="21">
+    <row r="34" spans="1:7" ht="23.25">
       <c r="A34" s="65"/>
       <c r="B34" s="94"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
+      <c r="D34" s="76" t="s">
+        <v>3331</v>
+      </c>
       <c r="E34" s="95"/>
       <c r="F34" s="65"/>
       <c r="G34" s="94"/>
     </row>
+    <row r="35" spans="1:7" ht="18.75">
+      <c r="D35" s="74">
+        <f>SUM(B2+G26+B37)</f>
+        <v>482</v>
+      </c>
+    </row>
     <row r="36" spans="1:7" ht="21">
       <c r="A36" s="98" t="s">
         <v>3333</v>
       </c>
       <c r="B36" s="98"/>
       <c r="F36" s="98" t="s">
-        <v>3333</v>
+        <v>3337</v>
       </c>
       <c r="G36" s="98"/>
     </row>
@@ -38379,7 +38416,7 @@
         <v>2390</v>
       </c>
       <c r="B38" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="70" t="s">
         <v>2390</v>
@@ -38393,7 +38430,7 @@
         <v>2391</v>
       </c>
       <c r="B39" s="72">
-        <v>5940</v>
+        <v>7973</v>
       </c>
       <c r="F39" s="70" t="s">
         <v>2391</v>
@@ -38407,7 +38444,7 @@
         <v>2392</v>
       </c>
       <c r="B40" s="72">
-        <v>10180</v>
+        <v>12930</v>
       </c>
       <c r="F40" s="70" t="s">
         <v>2392</v>
@@ -38421,7 +38458,7 @@
         <v>2393</v>
       </c>
       <c r="B41" s="73">
-        <v>43206</v>
+        <v>43235</v>
       </c>
       <c r="F41" s="70" t="s">
         <v>2393</v>
@@ -38435,7 +38472,7 @@
         <v>2394</v>
       </c>
       <c r="B42" s="83">
-        <v>43235</v>
+        <v>43251</v>
       </c>
       <c r="F42" s="82" t="s">
         <v>2394</v>
@@ -38485,6 +38522,10 @@
         <v>3334</v>
       </c>
       <c r="B47" s="98"/>
+      <c r="F47" s="98" t="s">
+        <v>3338</v>
+      </c>
+      <c r="G47" s="98"/>
     </row>
     <row r="48" spans="1:7" ht="21">
       <c r="A48" s="70" t="s">
@@ -38493,6 +38534,12 @@
       <c r="B48" s="72">
         <v>233</v>
       </c>
+      <c r="F48" s="70" t="s">
+        <v>2389</v>
+      </c>
+      <c r="G48" s="72">
+        <v>166</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="21">
       <c r="A49" s="70" t="s">
@@ -38501,6 +38548,10 @@
       <c r="B49" s="62">
         <v>1</v>
       </c>
+      <c r="F49" s="70" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G49" s="62"/>
     </row>
     <row r="50" spans="1:7" ht="21">
       <c r="A50" s="70" t="s">
@@ -38509,6 +38560,10 @@
       <c r="B50" s="72">
         <v>7642</v>
       </c>
+      <c r="F50" s="70" t="s">
+        <v>2391</v>
+      </c>
+      <c r="G50" s="72"/>
     </row>
     <row r="51" spans="1:7" ht="21">
       <c r="A51" s="70" t="s">
@@ -38517,6 +38572,10 @@
       <c r="B51" s="72">
         <v>12578</v>
       </c>
+      <c r="F51" s="70" t="s">
+        <v>2392</v>
+      </c>
+      <c r="G51" s="72"/>
     </row>
     <row r="52" spans="1:7" ht="21">
       <c r="A52" s="70" t="s">
@@ -38525,6 +38584,10 @@
       <c r="B52" s="73">
         <v>43234</v>
       </c>
+      <c r="F52" s="70" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G52" s="73"/>
     </row>
     <row r="53" spans="1:7" ht="21">
       <c r="A53" s="82" t="s">
@@ -38533,6 +38596,12 @@
       <c r="B53" s="83">
         <v>43251</v>
       </c>
+      <c r="F53" s="82" t="s">
+        <v>2394</v>
+      </c>
+      <c r="G53" s="83" t="s">
+        <v>3340</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="21">
       <c r="A54" s="63" t="s">
@@ -38541,6 +38610,12 @@
       <c r="B54" s="64">
         <v>43240</v>
       </c>
+      <c r="F54" s="63" t="s">
+        <v>2395</v>
+      </c>
+      <c r="G54" s="64">
+        <v>43249</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="21">
       <c r="A55" s="84" t="s">
@@ -38549,53 +38624,141 @@
       <c r="B55" s="85">
         <v>233</v>
       </c>
+      <c r="F55" s="84" t="s">
+        <v>3335</v>
+      </c>
+      <c r="G55" s="85">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="21">
+      <c r="A56" s="65"/>
+      <c r="B56" s="94"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="94"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="G57" s="96">
-        <v>43234</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="97" t="s">
+      <c r="G57" s="96"/>
+    </row>
+    <row r="58" spans="1:7" ht="21">
+      <c r="A58" s="98" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B58" s="98"/>
+      <c r="G58" s="96"/>
+    </row>
+    <row r="59" spans="1:7" ht="21">
+      <c r="A59" s="70" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B59" s="72">
+        <v>198</v>
+      </c>
+      <c r="G59" s="96"/>
+    </row>
+    <row r="60" spans="1:7" ht="21">
+      <c r="A60" s="70" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B60" s="62"/>
+      <c r="G60" s="96"/>
+    </row>
+    <row r="61" spans="1:7" ht="21">
+      <c r="A61" s="70" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B61" s="72"/>
+      <c r="G61" s="96"/>
+    </row>
+    <row r="62" spans="1:7" ht="21">
+      <c r="A62" s="70" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B62" s="72"/>
+      <c r="G62" s="96"/>
+    </row>
+    <row r="63" spans="1:7" ht="21">
+      <c r="A63" s="70" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B63" s="73"/>
+      <c r="G63" s="96"/>
+    </row>
+    <row r="64" spans="1:7" ht="21">
+      <c r="A64" s="82" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B64" s="83" t="s">
+        <v>3341</v>
+      </c>
+      <c r="G64" s="96"/>
+    </row>
+    <row r="65" spans="1:7" ht="21">
+      <c r="A65" s="63" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B65" s="64">
+        <v>43249</v>
+      </c>
+      <c r="G65" s="96"/>
+    </row>
+    <row r="66" spans="1:7" ht="21">
+      <c r="A66" s="84" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B66" s="85">
+        <v>198</v>
+      </c>
+      <c r="G66" s="96"/>
+    </row>
+    <row r="67" spans="1:7" ht="21">
+      <c r="A67" s="65"/>
+      <c r="B67" s="94"/>
+      <c r="G67" s="96">
+        <v>43248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="97" t="s">
         <v>2400</v>
       </c>
-      <c r="B59" s="97"/>
-      <c r="C59" s="97"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="97"/>
-      <c r="F59" s="97"/>
-      <c r="G59" s="97"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="97"/>
-      <c r="B60" s="97"/>
-      <c r="C60" s="97"/>
-      <c r="D60" s="97"/>
-      <c r="E60" s="97"/>
-      <c r="F60" s="97"/>
-      <c r="G60" s="97"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="97"/>
-      <c r="B61" s="97"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="97"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="97"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="97"/>
-      <c r="B62" s="97"/>
-      <c r="C62" s="97"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="97"/>
-      <c r="G62" s="97"/>
+      <c r="B69" s="97"/>
+      <c r="C69" s="97"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="97"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="97"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="97"/>
+      <c r="B70" s="97"/>
+      <c r="C70" s="97"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="97"/>
+      <c r="F70" s="97"/>
+      <c r="G70" s="97"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="97"/>
+      <c r="B71" s="97"/>
+      <c r="C71" s="97"/>
+      <c r="D71" s="97"/>
+      <c r="E71" s="97"/>
+      <c r="F71" s="97"/>
+      <c r="G71" s="97"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="97"/>
+      <c r="B72" s="97"/>
+      <c r="C72" s="97"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="97"/>
+      <c r="F72" s="97"/>
+      <c r="G72" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A59:G62"/>
+  <mergeCells count="12">
+    <mergeCell ref="A69:G72"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="F13:G13"/>
@@ -38605,9 +38768,855 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="A47:B47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="A58:B58"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="67" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G72"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:G72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21">
+      <c r="A1" s="98" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="98" t="s">
+        <v>2388</v>
+      </c>
+      <c r="G1" s="98"/>
+    </row>
+    <row r="2" spans="1:7" ht="21">
+      <c r="A2" s="70" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B2" s="72">
+        <v>162</v>
+      </c>
+      <c r="D2" s="101"/>
+      <c r="F2" s="70" t="s">
+        <v>2389</v>
+      </c>
+      <c r="G2" s="72">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21">
+      <c r="A3" s="70" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B3" s="62">
+        <v>0</v>
+      </c>
+      <c r="D3" s="66"/>
+      <c r="F3" s="70" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G3" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21">
+      <c r="A4" s="70" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B4" s="72">
+        <v>9488</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="F4" s="70" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G4" s="72">
+        <v>9484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21">
+      <c r="A5" s="70" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B5" s="72">
+        <v>15129</v>
+      </c>
+      <c r="D5" s="100"/>
+      <c r="F5" s="70" t="s">
+        <v>3325</v>
+      </c>
+      <c r="G5" s="72">
+        <v>15133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21">
+      <c r="A6" s="70" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B6" s="73">
+        <v>43257</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="F6" s="70" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G6" s="73">
+        <v>43257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="21">
+      <c r="A7" s="82" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B7" s="83">
+        <v>43281</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="F7" s="82" t="s">
+        <v>2394</v>
+      </c>
+      <c r="G7" s="83">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="21">
+      <c r="A8" s="63" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B8" s="64">
+        <v>43268</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>2395</v>
+      </c>
+      <c r="G8" s="64">
+        <v>43271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="21">
+      <c r="A9" s="84" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B9" s="85">
+        <v>191</v>
+      </c>
+      <c r="F9" s="84" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G9" s="85">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="21">
+      <c r="A10" s="65"/>
+      <c r="B10" s="94"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="94"/>
+    </row>
+    <row r="11" spans="1:7" ht="23.25">
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="D11" s="76" t="s">
+        <v>2399</v>
+      </c>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+    </row>
+    <row r="12" spans="1:7" ht="21">
+      <c r="D12" s="69">
+        <f>SUM(G2+B2+B14+G14+B26+G26+B37+G37+B48+G48+B59)</f>
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="21">
+      <c r="A13" s="98" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B13" s="98"/>
+      <c r="D13" s="66"/>
+      <c r="F13" s="98" t="s">
+        <v>3328</v>
+      </c>
+      <c r="G13" s="98"/>
+    </row>
+    <row r="14" spans="1:7" ht="21">
+      <c r="A14" s="70" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B14" s="72">
+        <v>215</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>2389</v>
+      </c>
+      <c r="G14" s="72">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="21">
+      <c r="A15" s="70" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B15" s="62">
+        <v>0</v>
+      </c>
+      <c r="D15" s="75"/>
+      <c r="F15" s="70" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G15" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="23.25">
+      <c r="A16" s="70" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B16" s="72">
+        <v>9077</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>3330</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G16" s="72">
+        <v>9487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="21">
+      <c r="A17" s="70" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B17" s="72">
+        <v>15127</v>
+      </c>
+      <c r="D17" s="74">
+        <f>SUM(G2+B2+B14+G14+B26+G26+B37+G37+B48)</f>
+        <v>1599</v>
+      </c>
+      <c r="F17" s="70" t="s">
+        <v>3325</v>
+      </c>
+      <c r="G17" s="72">
+        <v>15128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21">
+      <c r="A18" s="70" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B18" s="73">
+        <v>43257</v>
+      </c>
+      <c r="F18" s="70" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G18" s="73">
+        <v>43257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="21">
+      <c r="A19" s="82" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B19" s="83">
+        <v>43281</v>
+      </c>
+      <c r="F19" s="82" t="s">
+        <v>2394</v>
+      </c>
+      <c r="G19" s="83">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="23.25">
+      <c r="A20" s="63" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B20" s="64">
+        <v>43268</v>
+      </c>
+      <c r="D20" s="76" t="s">
+        <v>3331</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>2395</v>
+      </c>
+      <c r="G20" s="64">
+        <v>43271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21">
+      <c r="A21" s="84" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B21" s="85">
+        <v>246</v>
+      </c>
+      <c r="D21" s="74">
+        <f>SUM(D12-D17)</f>
+        <v>364</v>
+      </c>
+      <c r="F21" s="84" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G21" s="85">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="21">
+      <c r="A22" s="84"/>
+      <c r="B22" s="85"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="85"/>
+    </row>
+    <row r="23" spans="1:7" ht="21">
+      <c r="F23" s="65"/>
+      <c r="G23" s="94"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+    </row>
+    <row r="25" spans="1:7" ht="21">
+      <c r="A25" s="98" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B25" s="98"/>
+      <c r="F25" s="99" t="s">
+        <v>3332</v>
+      </c>
+      <c r="G25" s="99"/>
+    </row>
+    <row r="26" spans="1:7" ht="21">
+      <c r="A26" s="70" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B26" s="72">
+        <v>189</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>2389</v>
+      </c>
+      <c r="G26" s="72">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="21">
+      <c r="A27" s="70" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B27" s="62">
+        <v>2</v>
+      </c>
+      <c r="F27" s="70" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G27" s="62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="21">
+      <c r="A28" s="70" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B28" s="72">
+        <v>9494</v>
+      </c>
+      <c r="F28" s="70" t="s">
+        <v>2391</v>
+      </c>
+      <c r="G28" s="72">
+        <v>9489</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="21">
+      <c r="A29" s="70" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B29" s="72">
+        <v>15131</v>
+      </c>
+      <c r="F29" s="70" t="s">
+        <v>2392</v>
+      </c>
+      <c r="G29" s="72">
+        <v>15130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="21">
+      <c r="A30" s="70" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B30" s="73">
+        <v>43257</v>
+      </c>
+      <c r="F30" s="70" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G30" s="73">
+        <v>43257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="21">
+      <c r="A31" s="82" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B31" s="83">
+        <v>43281</v>
+      </c>
+      <c r="F31" s="82" t="s">
+        <v>2394</v>
+      </c>
+      <c r="G31" s="83">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="21">
+      <c r="A32" s="63" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B32" s="64">
+        <v>43268</v>
+      </c>
+      <c r="F32" s="63" t="s">
+        <v>2395</v>
+      </c>
+      <c r="G32" s="64">
+        <v>43271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="21">
+      <c r="A33" s="84" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B33" s="85">
+        <v>219</v>
+      </c>
+      <c r="F33" s="84" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G33" s="85">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="21">
+      <c r="A34" s="65"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="94"/>
+    </row>
+    <row r="36" spans="1:7" ht="21">
+      <c r="A36" s="98" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B36" s="98"/>
+      <c r="F36" s="98" t="s">
+        <v>3337</v>
+      </c>
+      <c r="G36" s="98"/>
+    </row>
+    <row r="37" spans="1:7" ht="21">
+      <c r="A37" s="70" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B37" s="72">
+        <v>69</v>
+      </c>
+      <c r="F37" s="70" t="s">
+        <v>2389</v>
+      </c>
+      <c r="G37" s="72">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="21">
+      <c r="A38" s="70" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B38" s="62">
+        <v>0</v>
+      </c>
+      <c r="F38" s="70" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G38" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="21">
+      <c r="A39" s="70" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B39" s="72">
+        <v>9486</v>
+      </c>
+      <c r="F39" s="70" t="s">
+        <v>2391</v>
+      </c>
+      <c r="G39" s="72">
+        <v>9485</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="21">
+      <c r="A40" s="70" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B40" s="72">
+        <v>15134</v>
+      </c>
+      <c r="F40" s="70" t="s">
+        <v>2392</v>
+      </c>
+      <c r="G40" s="72">
+        <v>15132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="21">
+      <c r="A41" s="70" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B41" s="73">
+        <v>43257</v>
+      </c>
+      <c r="F41" s="70" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G41" s="73">
+        <v>43257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="21">
+      <c r="A42" s="82" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B42" s="83">
+        <v>43281</v>
+      </c>
+      <c r="F42" s="82" t="s">
+        <v>2394</v>
+      </c>
+      <c r="G42" s="83">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="21">
+      <c r="A43" s="63" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B43" s="64">
+        <v>43268</v>
+      </c>
+      <c r="F43" s="63" t="s">
+        <v>2395</v>
+      </c>
+      <c r="G43" s="64">
+        <v>43271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="21">
+      <c r="A44" s="84" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B44" s="85">
+        <v>70</v>
+      </c>
+      <c r="F44" s="84" t="s">
+        <v>3335</v>
+      </c>
+      <c r="G44" s="85">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="21">
+      <c r="F45" s="84" t="s">
+        <v>3336</v>
+      </c>
+      <c r="G45" s="85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="21">
+      <c r="A47" s="98" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B47" s="98"/>
+      <c r="F47" s="98" t="s">
+        <v>3338</v>
+      </c>
+      <c r="G47" s="98"/>
+    </row>
+    <row r="48" spans="1:7" ht="21">
+      <c r="A48" s="70" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B48" s="72">
+        <v>232</v>
+      </c>
+      <c r="F48" s="70" t="s">
+        <v>2389</v>
+      </c>
+      <c r="G48" s="72">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="21">
+      <c r="A49" s="70" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B49" s="62">
+        <v>0</v>
+      </c>
+      <c r="F49" s="70" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G49" s="62"/>
+    </row>
+    <row r="50" spans="1:7" ht="21">
+      <c r="A50" s="70" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B50" s="72">
+        <v>9490</v>
+      </c>
+      <c r="F50" s="70" t="s">
+        <v>2391</v>
+      </c>
+      <c r="G50" s="72"/>
+    </row>
+    <row r="51" spans="1:7" ht="21">
+      <c r="A51" s="70" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B51" s="72">
+        <v>15126</v>
+      </c>
+      <c r="F51" s="70" t="s">
+        <v>2392</v>
+      </c>
+      <c r="G51" s="72"/>
+    </row>
+    <row r="52" spans="1:7" ht="21">
+      <c r="A52" s="70" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B52" s="73">
+        <v>43257</v>
+      </c>
+      <c r="F52" s="70" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G52" s="73"/>
+    </row>
+    <row r="53" spans="1:7" ht="21">
+      <c r="A53" s="82" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B53" s="83">
+        <v>43281</v>
+      </c>
+      <c r="F53" s="82" t="s">
+        <v>2394</v>
+      </c>
+      <c r="G53" s="83" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="21">
+      <c r="A54" s="63" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B54" s="64">
+        <v>43268</v>
+      </c>
+      <c r="F54" s="63" t="s">
+        <v>2395</v>
+      </c>
+      <c r="G54" s="64">
+        <v>43249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="21">
+      <c r="A55" s="84" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B55" s="85">
+        <v>233</v>
+      </c>
+      <c r="F55" s="84" t="s">
+        <v>3335</v>
+      </c>
+      <c r="G55" s="85">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="21">
+      <c r="A56" s="65"/>
+      <c r="B56" s="94"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="94"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="G57" s="96"/>
+    </row>
+    <row r="58" spans="1:7" ht="21">
+      <c r="A58" s="98" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B58" s="98"/>
+      <c r="G58" s="96"/>
+    </row>
+    <row r="59" spans="1:7" ht="21">
+      <c r="A59" s="70" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B59" s="72">
+        <v>198</v>
+      </c>
+      <c r="G59" s="96"/>
+    </row>
+    <row r="60" spans="1:7" ht="21">
+      <c r="A60" s="70" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B60" s="62"/>
+      <c r="G60" s="96"/>
+    </row>
+    <row r="61" spans="1:7" ht="21">
+      <c r="A61" s="70" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B61" s="72"/>
+      <c r="G61" s="96"/>
+    </row>
+    <row r="62" spans="1:7" ht="21">
+      <c r="A62" s="70" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B62" s="72"/>
+      <c r="G62" s="96"/>
+    </row>
+    <row r="63" spans="1:7" ht="21">
+      <c r="A63" s="70" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B63" s="73"/>
+      <c r="G63" s="96"/>
+    </row>
+    <row r="64" spans="1:7" ht="21">
+      <c r="A64" s="82" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B64" s="83" t="s">
+        <v>3341</v>
+      </c>
+      <c r="G64" s="96"/>
+    </row>
+    <row r="65" spans="1:7" ht="21">
+      <c r="A65" s="63" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B65" s="64">
+        <v>43249</v>
+      </c>
+      <c r="G65" s="96"/>
+    </row>
+    <row r="66" spans="1:7" ht="21">
+      <c r="A66" s="84" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B66" s="85">
+        <v>198</v>
+      </c>
+      <c r="G66" s="96"/>
+    </row>
+    <row r="67" spans="1:7" ht="21">
+      <c r="A67" s="65"/>
+      <c r="B67" s="94"/>
+      <c r="G67" s="96">
+        <v>43257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="97" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B69" s="97"/>
+      <c r="C69" s="97"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="97"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="97"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="97"/>
+      <c r="B70" s="97"/>
+      <c r="C70" s="97"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="97"/>
+      <c r="F70" s="97"/>
+      <c r="G70" s="97"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="97"/>
+      <c r="B71" s="97"/>
+      <c r="C71" s="97"/>
+      <c r="D71" s="97"/>
+      <c r="E71" s="97"/>
+      <c r="F71" s="97"/>
+      <c r="G71" s="97"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="97"/>
+      <c r="B72" s="97"/>
+      <c r="C72" s="97"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="97"/>
+      <c r="F72" s="97"/>
+      <c r="G72" s="97"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A69:G72"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="A58:B58"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="2" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/New Microsoft Office Excel Worksheet.xlsx
+++ b/New Microsoft Office Excel Worksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18960" windowHeight="11760" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18960" windowHeight="7335" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="تسهيل المهمة الاولى" sheetId="1" r:id="rId1"/>
@@ -10627,6 +10627,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10634,12 +10640,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -22713,8 +22713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="E202" sqref="A202:E220"/>
+    <sheetView rightToLeft="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -27138,7 +27138,7 @@
   <dimension ref="A1:G218"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="E202" sqref="A202:E209"/>
+      <selection activeCell="F213" sqref="F213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31823,19 +31823,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="100" t="s">
         <v>2387</v>
       </c>
-      <c r="B1" s="98"/>
+      <c r="B1" s="100"/>
       <c r="C1" s="66"/>
       <c r="D1" s="81" t="s">
         <v>1829</v>
       </c>
       <c r="E1" s="66"/>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="100" t="s">
         <v>2388</v>
       </c>
-      <c r="G1" s="98"/>
+      <c r="G1" s="100"/>
     </row>
     <row r="2" spans="1:7" ht="21">
       <c r="A2" s="71" t="s">
@@ -31981,15 +31981,15 @@
       <c r="G11" s="67"/>
     </row>
     <row r="13" spans="1:7" ht="21">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="100" t="s">
         <v>2396</v>
       </c>
-      <c r="B13" s="98"/>
+      <c r="B13" s="100"/>
       <c r="D13" s="65"/>
-      <c r="F13" s="98" t="s">
+      <c r="F13" s="100" t="s">
         <v>2397</v>
       </c>
-      <c r="G13" s="98"/>
+      <c r="G13" s="100"/>
     </row>
     <row r="14" spans="1:7" ht="21">
       <c r="A14" s="70" t="s">
@@ -32148,14 +32148,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="21">
-      <c r="A25" s="98" t="s">
+      <c r="A25" s="100" t="s">
         <v>3322</v>
       </c>
-      <c r="B25" s="98"/>
-      <c r="F25" s="98" t="s">
+      <c r="B25" s="100"/>
+      <c r="F25" s="100" t="s">
         <v>3323</v>
       </c>
-      <c r="G25" s="98"/>
+      <c r="G25" s="100"/>
     </row>
     <row r="26" spans="1:7" ht="21">
       <c r="A26" s="70" t="s">
@@ -32270,42 +32270,42 @@
       <c r="G34" s="85"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="97" t="s">
+      <c r="A35" s="99" t="s">
         <v>2400</v>
       </c>
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="97"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
+      <c r="A36" s="99"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="97"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
+      <c r="A37" s="99"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="97"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
+      <c r="A38" s="99"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -32319,7 +32319,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="86" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32328,7 +32328,7 @@
   <dimension ref="A1:F192"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="A177" sqref="A177:E192"/>
+      <selection activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36196,7 +36196,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E77" sqref="A77:E99"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37917,19 +37917,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="100" t="s">
         <v>3327</v>
       </c>
-      <c r="B1" s="98"/>
+      <c r="B1" s="100"/>
       <c r="C1" s="66"/>
       <c r="D1" s="81" t="s">
         <v>1829</v>
       </c>
       <c r="E1" s="66"/>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="100" t="s">
         <v>2388</v>
       </c>
-      <c r="G1" s="98"/>
+      <c r="G1" s="100"/>
     </row>
     <row r="2" spans="1:7" ht="21">
       <c r="A2" s="70" t="s">
@@ -38075,15 +38075,15 @@
       <c r="G11" s="67"/>
     </row>
     <row r="13" spans="1:7" ht="21">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="100" t="s">
         <v>2396</v>
       </c>
-      <c r="B13" s="98"/>
+      <c r="B13" s="100"/>
       <c r="D13" s="65"/>
-      <c r="F13" s="98" t="s">
+      <c r="F13" s="100" t="s">
         <v>3328</v>
       </c>
-      <c r="G13" s="98"/>
+      <c r="G13" s="100"/>
     </row>
     <row r="14" spans="1:7" ht="21">
       <c r="A14" s="70" t="s">
@@ -38229,17 +38229,17 @@
       <c r="G24" s="95"/>
     </row>
     <row r="25" spans="1:7" ht="23.25">
-      <c r="A25" s="98" t="s">
+      <c r="A25" s="100" t="s">
         <v>3322</v>
       </c>
-      <c r="B25" s="98"/>
+      <c r="B25" s="100"/>
       <c r="D25" s="76" t="s">
         <v>2399</v>
       </c>
-      <c r="F25" s="99" t="s">
+      <c r="F25" s="101" t="s">
         <v>3332</v>
       </c>
-      <c r="G25" s="99"/>
+      <c r="G25" s="101"/>
     </row>
     <row r="26" spans="1:7" ht="21">
       <c r="A26" s="70" t="s">
@@ -38388,14 +38388,14 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="21">
-      <c r="A36" s="98" t="s">
+      <c r="A36" s="100" t="s">
         <v>3333</v>
       </c>
-      <c r="B36" s="98"/>
-      <c r="F36" s="98" t="s">
+      <c r="B36" s="100"/>
+      <c r="F36" s="100" t="s">
         <v>3337</v>
       </c>
-      <c r="G36" s="98"/>
+      <c r="G36" s="100"/>
     </row>
     <row r="37" spans="1:7" ht="21">
       <c r="A37" s="70" t="s">
@@ -38518,14 +38518,14 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="21">
-      <c r="A47" s="98" t="s">
+      <c r="A47" s="100" t="s">
         <v>3334</v>
       </c>
-      <c r="B47" s="98"/>
-      <c r="F47" s="98" t="s">
+      <c r="B47" s="100"/>
+      <c r="F47" s="100" t="s">
         <v>3338</v>
       </c>
-      <c r="G47" s="98"/>
+      <c r="G47" s="100"/>
     </row>
     <row r="48" spans="1:7" ht="21">
       <c r="A48" s="70" t="s">
@@ -38641,10 +38641,10 @@
       <c r="G57" s="96"/>
     </row>
     <row r="58" spans="1:7" ht="21">
-      <c r="A58" s="98" t="s">
+      <c r="A58" s="100" t="s">
         <v>3339</v>
       </c>
-      <c r="B58" s="98"/>
+      <c r="B58" s="100"/>
       <c r="G58" s="96"/>
     </row>
     <row r="59" spans="1:7" ht="21">
@@ -38719,42 +38719,42 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="97" t="s">
+      <c r="A69" s="99" t="s">
         <v>2400</v>
       </c>
-      <c r="B69" s="97"/>
-      <c r="C69" s="97"/>
-      <c r="D69" s="97"/>
-      <c r="E69" s="97"/>
-      <c r="F69" s="97"/>
-      <c r="G69" s="97"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="99"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="97"/>
-      <c r="B70" s="97"/>
-      <c r="C70" s="97"/>
-      <c r="D70" s="97"/>
-      <c r="E70" s="97"/>
-      <c r="F70" s="97"/>
-      <c r="G70" s="97"/>
+      <c r="A70" s="99"/>
+      <c r="B70" s="99"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="99"/>
+      <c r="E70" s="99"/>
+      <c r="F70" s="99"/>
+      <c r="G70" s="99"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="97"/>
-      <c r="B71" s="97"/>
-      <c r="C71" s="97"/>
-      <c r="D71" s="97"/>
-      <c r="E71" s="97"/>
-      <c r="F71" s="97"/>
-      <c r="G71" s="97"/>
+      <c r="A71" s="99"/>
+      <c r="B71" s="99"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="99"/>
+      <c r="E71" s="99"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="99"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="97"/>
-      <c r="B72" s="97"/>
-      <c r="C72" s="97"/>
-      <c r="D72" s="97"/>
-      <c r="E72" s="97"/>
-      <c r="F72" s="97"/>
-      <c r="G72" s="97"/>
+      <c r="A72" s="99"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="99"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -38773,7 +38773,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="57" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -38784,31 +38784,31 @@
   </sheetPr>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A54" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="F1" sqref="A1:G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="100" t="s">
         <v>3327</v>
       </c>
-      <c r="B1" s="98"/>
+      <c r="B1" s="100"/>
       <c r="C1" s="66"/>
-      <c r="D1" s="100"/>
+      <c r="D1" s="97"/>
       <c r="E1" s="66"/>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="100" t="s">
         <v>2388</v>
       </c>
-      <c r="G1" s="98"/>
+      <c r="G1" s="100"/>
     </row>
     <row r="2" spans="1:7" ht="21">
       <c r="A2" s="70" t="s">
@@ -38817,101 +38817,89 @@
       <c r="B2" s="72">
         <v>162</v>
       </c>
-      <c r="D2" s="101"/>
+      <c r="D2" s="98"/>
       <c r="F2" s="70" t="s">
         <v>2389</v>
       </c>
       <c r="G2" s="72">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21">
       <c r="A3" s="70" t="s">
         <v>2390</v>
       </c>
-      <c r="B3" s="62">
-        <v>0</v>
-      </c>
+      <c r="B3" s="62"/>
       <c r="D3" s="66"/>
       <c r="F3" s="70" t="s">
         <v>2390</v>
       </c>
       <c r="G3" s="62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21">
       <c r="A4" s="70" t="s">
         <v>2391</v>
       </c>
-      <c r="B4" s="72">
-        <v>9488</v>
-      </c>
+      <c r="B4" s="72"/>
       <c r="D4" s="66"/>
       <c r="F4" s="70" t="s">
         <v>3324</v>
       </c>
       <c r="G4" s="72">
-        <v>9484</v>
+        <v>11183</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="21">
       <c r="A5" s="70" t="s">
         <v>2392</v>
       </c>
-      <c r="B5" s="72">
-        <v>15129</v>
-      </c>
-      <c r="D5" s="100"/>
+      <c r="B5" s="72"/>
+      <c r="D5" s="97"/>
       <c r="F5" s="70" t="s">
         <v>3325</v>
       </c>
       <c r="G5" s="72">
-        <v>15133</v>
+        <v>17485</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="21">
       <c r="A6" s="70" t="s">
         <v>2393</v>
       </c>
-      <c r="B6" s="73">
-        <v>43257</v>
-      </c>
+      <c r="B6" s="73"/>
       <c r="D6" s="68"/>
       <c r="F6" s="70" t="s">
         <v>2393</v>
       </c>
       <c r="G6" s="73">
-        <v>43257</v>
+        <v>43284</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21">
       <c r="A7" s="82" t="s">
         <v>2394</v>
       </c>
-      <c r="B7" s="83">
-        <v>43281</v>
-      </c>
+      <c r="B7" s="83"/>
       <c r="D7" s="66"/>
       <c r="F7" s="82" t="s">
         <v>2394</v>
       </c>
       <c r="G7" s="83">
-        <v>43281</v>
+        <v>43314</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21">
       <c r="A8" s="63" t="s">
         <v>2395</v>
       </c>
-      <c r="B8" s="64">
-        <v>43268</v>
-      </c>
+      <c r="B8" s="64"/>
       <c r="F8" s="63" t="s">
         <v>2395</v>
       </c>
       <c r="G8" s="64">
-        <v>43271</v>
+        <v>43299</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21">
@@ -38946,26 +38934,26 @@
     <row r="12" spans="1:7" ht="21">
       <c r="D12" s="69">
         <f>SUM(G2+B2+B14+G14+B26+G26+B37+G37+B48+G48+B59)</f>
-        <v>1963</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="21">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="100" t="s">
         <v>2396</v>
       </c>
-      <c r="B13" s="98"/>
+      <c r="B13" s="100"/>
       <c r="D13" s="66"/>
-      <c r="F13" s="98" t="s">
+      <c r="F13" s="100" t="s">
         <v>3328</v>
       </c>
-      <c r="G13" s="98"/>
+      <c r="G13" s="100"/>
     </row>
     <row r="14" spans="1:7" ht="21">
       <c r="A14" s="70" t="s">
         <v>2389</v>
       </c>
       <c r="B14" s="72">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F14" s="70" t="s">
         <v>2389</v>
@@ -38994,7 +38982,7 @@
         <v>2391</v>
       </c>
       <c r="B16" s="72">
-        <v>9077</v>
+        <v>11180</v>
       </c>
       <c r="D16" s="76" t="s">
         <v>3330</v>
@@ -39002,62 +38990,54 @@
       <c r="F16" s="70" t="s">
         <v>3324</v>
       </c>
-      <c r="G16" s="72">
-        <v>9487</v>
-      </c>
+      <c r="G16" s="72"/>
     </row>
     <row r="17" spans="1:7" ht="21">
       <c r="A17" s="70" t="s">
         <v>2392</v>
       </c>
       <c r="B17" s="72">
-        <v>15127</v>
+        <v>17490</v>
       </c>
       <c r="D17" s="74">
-        <f>SUM(G2+B2+B14+G14+B26+G26+B37+G37+B48)</f>
-        <v>1599</v>
+        <f>SUM(G2+B14+B26+G26+B37+G37+B48)</f>
+        <v>1245</v>
       </c>
       <c r="F17" s="70" t="s">
         <v>3325</v>
       </c>
-      <c r="G17" s="72">
-        <v>15128</v>
-      </c>
+      <c r="G17" s="72"/>
     </row>
     <row r="18" spans="1:7" ht="21">
       <c r="A18" s="70" t="s">
         <v>2393</v>
       </c>
       <c r="B18" s="73">
-        <v>43257</v>
+        <v>43284</v>
       </c>
       <c r="F18" s="70" t="s">
         <v>2393</v>
       </c>
-      <c r="G18" s="73">
-        <v>43257</v>
-      </c>
+      <c r="G18" s="73"/>
     </row>
     <row r="19" spans="1:7" ht="21">
       <c r="A19" s="82" t="s">
         <v>2394</v>
       </c>
       <c r="B19" s="83">
-        <v>43281</v>
+        <v>43314</v>
       </c>
       <c r="F19" s="82" t="s">
         <v>2394</v>
       </c>
-      <c r="G19" s="83">
-        <v>43281</v>
-      </c>
+      <c r="G19" s="83"/>
     </row>
     <row r="20" spans="1:7" ht="23.25">
       <c r="A20" s="63" t="s">
         <v>2395</v>
       </c>
       <c r="B20" s="64">
-        <v>43268</v>
+        <v>43299</v>
       </c>
       <c r="D20" s="76" t="s">
         <v>3331</v>
@@ -39065,9 +39045,7 @@
       <c r="F20" s="63" t="s">
         <v>2395</v>
       </c>
-      <c r="G20" s="64">
-        <v>43271</v>
-      </c>
+      <c r="G20" s="64"/>
     </row>
     <row r="21" spans="1:7" ht="21">
       <c r="A21" s="84" t="s">
@@ -39078,7 +39056,7 @@
       </c>
       <c r="D21" s="74">
         <f>SUM(D12-D17)</f>
-        <v>364</v>
+        <v>711</v>
       </c>
       <c r="F21" s="84" t="s">
         <v>1829</v>
@@ -39102,27 +39080,27 @@
       <c r="G24" s="95"/>
     </row>
     <row r="25" spans="1:7" ht="21">
-      <c r="A25" s="98" t="s">
+      <c r="A25" s="100" t="s">
         <v>3322</v>
       </c>
-      <c r="B25" s="98"/>
-      <c r="F25" s="99" t="s">
+      <c r="B25" s="100"/>
+      <c r="F25" s="101" t="s">
         <v>3332</v>
       </c>
-      <c r="G25" s="99"/>
+      <c r="G25" s="101"/>
     </row>
     <row r="26" spans="1:7" ht="21">
       <c r="A26" s="70" t="s">
         <v>2389</v>
       </c>
       <c r="B26" s="72">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F26" s="70" t="s">
         <v>2389</v>
       </c>
       <c r="G26" s="72">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="21">
@@ -39130,13 +39108,13 @@
         <v>2390</v>
       </c>
       <c r="B27" s="62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" s="70" t="s">
         <v>2390</v>
       </c>
       <c r="G27" s="62">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="21">
@@ -39144,13 +39122,13 @@
         <v>2391</v>
       </c>
       <c r="B28" s="72">
-        <v>9494</v>
+        <v>11191</v>
       </c>
       <c r="F28" s="70" t="s">
         <v>2391</v>
       </c>
       <c r="G28" s="72">
-        <v>9489</v>
+        <v>11179</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="21">
@@ -39158,13 +39136,13 @@
         <v>2392</v>
       </c>
       <c r="B29" s="72">
-        <v>15131</v>
+        <v>17482</v>
       </c>
       <c r="F29" s="70" t="s">
         <v>2392</v>
       </c>
       <c r="G29" s="72">
-        <v>15130</v>
+        <v>17467</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="21">
@@ -39172,13 +39150,13 @@
         <v>2393</v>
       </c>
       <c r="B30" s="73">
-        <v>43257</v>
+        <v>43284</v>
       </c>
       <c r="F30" s="70" t="s">
         <v>2393</v>
       </c>
       <c r="G30" s="73">
-        <v>43257</v>
+        <v>43284</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="21">
@@ -39186,13 +39164,13 @@
         <v>2394</v>
       </c>
       <c r="B31" s="83">
-        <v>43281</v>
+        <v>43312</v>
       </c>
       <c r="F31" s="82" t="s">
         <v>2394</v>
       </c>
       <c r="G31" s="83">
-        <v>43281</v>
+        <v>43314</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="21">
@@ -39200,13 +39178,13 @@
         <v>2395</v>
       </c>
       <c r="B32" s="64">
-        <v>43268</v>
+        <v>43299</v>
       </c>
       <c r="F32" s="63" t="s">
         <v>2395</v>
       </c>
       <c r="G32" s="64">
-        <v>43271</v>
+        <v>43299</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="21">
@@ -39232,14 +39210,14 @@
       <c r="G34" s="94"/>
     </row>
     <row r="36" spans="1:7" ht="21">
-      <c r="A36" s="98" t="s">
+      <c r="A36" s="100" t="s">
         <v>3333</v>
       </c>
-      <c r="B36" s="98"/>
-      <c r="F36" s="98" t="s">
+      <c r="B36" s="100"/>
+      <c r="F36" s="100" t="s">
         <v>3337</v>
       </c>
-      <c r="G36" s="98"/>
+      <c r="G36" s="100"/>
     </row>
     <row r="37" spans="1:7" ht="21">
       <c r="A37" s="70" t="s">
@@ -39274,13 +39252,13 @@
         <v>2391</v>
       </c>
       <c r="B39" s="72">
-        <v>9486</v>
+        <v>11182</v>
       </c>
       <c r="F39" s="70" t="s">
         <v>2391</v>
       </c>
       <c r="G39" s="72">
-        <v>9485</v>
+        <v>11176</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="21">
@@ -39288,13 +39266,13 @@
         <v>2392</v>
       </c>
       <c r="B40" s="72">
-        <v>15134</v>
+        <v>17468</v>
       </c>
       <c r="F40" s="70" t="s">
         <v>2392</v>
       </c>
       <c r="G40" s="72">
-        <v>15132</v>
+        <v>17501</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="21">
@@ -39302,13 +39280,13 @@
         <v>2393</v>
       </c>
       <c r="B41" s="73">
-        <v>43257</v>
+        <v>43284</v>
       </c>
       <c r="F41" s="70" t="s">
         <v>2393</v>
       </c>
       <c r="G41" s="73">
-        <v>43257</v>
+        <v>43284</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="21">
@@ -39316,13 +39294,13 @@
         <v>2394</v>
       </c>
       <c r="B42" s="83">
-        <v>43281</v>
+        <v>43314</v>
       </c>
       <c r="F42" s="82" t="s">
         <v>2394</v>
       </c>
       <c r="G42" s="83">
-        <v>43281</v>
+        <v>43314</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="21">
@@ -39330,13 +39308,13 @@
         <v>2395</v>
       </c>
       <c r="B43" s="64">
-        <v>43268</v>
+        <v>43299</v>
       </c>
       <c r="F43" s="63" t="s">
         <v>2395</v>
       </c>
       <c r="G43" s="64">
-        <v>43271</v>
+        <v>43299</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="21">
@@ -39362,14 +39340,14 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="21">
-      <c r="A47" s="98" t="s">
+      <c r="A47" s="100" t="s">
         <v>3334</v>
       </c>
-      <c r="B47" s="98"/>
-      <c r="F47" s="98" t="s">
+      <c r="B47" s="100"/>
+      <c r="F47" s="100" t="s">
         <v>3338</v>
       </c>
-      <c r="G47" s="98"/>
+      <c r="G47" s="100"/>
     </row>
     <row r="48" spans="1:7" ht="21">
       <c r="A48" s="70" t="s">
@@ -39402,7 +39380,7 @@
         <v>2391</v>
       </c>
       <c r="B50" s="72">
-        <v>9490</v>
+        <v>11184</v>
       </c>
       <c r="F50" s="70" t="s">
         <v>2391</v>
@@ -39414,7 +39392,7 @@
         <v>2392</v>
       </c>
       <c r="B51" s="72">
-        <v>15126</v>
+        <v>17484</v>
       </c>
       <c r="F51" s="70" t="s">
         <v>2392</v>
@@ -39426,7 +39404,7 @@
         <v>2393</v>
       </c>
       <c r="B52" s="73">
-        <v>43257</v>
+        <v>43284</v>
       </c>
       <c r="F52" s="70" t="s">
         <v>2393</v>
@@ -39438,7 +39416,7 @@
         <v>2394</v>
       </c>
       <c r="B53" s="83">
-        <v>43281</v>
+        <v>43314</v>
       </c>
       <c r="F53" s="82" t="s">
         <v>2394</v>
@@ -39452,7 +39430,7 @@
         <v>2395</v>
       </c>
       <c r="B54" s="64">
-        <v>43268</v>
+        <v>43299</v>
       </c>
       <c r="F54" s="63" t="s">
         <v>2395</v>
@@ -39485,10 +39463,10 @@
       <c r="G57" s="96"/>
     </row>
     <row r="58" spans="1:7" ht="21">
-      <c r="A58" s="98" t="s">
+      <c r="A58" s="100" t="s">
         <v>3339</v>
       </c>
-      <c r="B58" s="98"/>
+      <c r="B58" s="100"/>
       <c r="G58" s="96"/>
     </row>
     <row r="59" spans="1:7" ht="21">
@@ -39559,46 +39537,46 @@
       <c r="A67" s="65"/>
       <c r="B67" s="94"/>
       <c r="G67" s="96">
-        <v>43257</v>
+        <v>43285</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="97" t="s">
+      <c r="A69" s="99" t="s">
         <v>2400</v>
       </c>
-      <c r="B69" s="97"/>
-      <c r="C69" s="97"/>
-      <c r="D69" s="97"/>
-      <c r="E69" s="97"/>
-      <c r="F69" s="97"/>
-      <c r="G69" s="97"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="99"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="97"/>
-      <c r="B70" s="97"/>
-      <c r="C70" s="97"/>
-      <c r="D70" s="97"/>
-      <c r="E70" s="97"/>
-      <c r="F70" s="97"/>
-      <c r="G70" s="97"/>
+      <c r="A70" s="99"/>
+      <c r="B70" s="99"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="99"/>
+      <c r="E70" s="99"/>
+      <c r="F70" s="99"/>
+      <c r="G70" s="99"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="97"/>
-      <c r="B71" s="97"/>
-      <c r="C71" s="97"/>
-      <c r="D71" s="97"/>
-      <c r="E71" s="97"/>
-      <c r="F71" s="97"/>
-      <c r="G71" s="97"/>
+      <c r="A71" s="99"/>
+      <c r="B71" s="99"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="99"/>
+      <c r="E71" s="99"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="99"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="97"/>
-      <c r="B72" s="97"/>
-      <c r="C72" s="97"/>
-      <c r="D72" s="97"/>
-      <c r="E72" s="97"/>
-      <c r="F72" s="97"/>
-      <c r="G72" s="97"/>
+      <c r="A72" s="99"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="99"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -39617,6 +39595,6 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="2" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" fitToHeight="2" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>